--- a/src/total_scores.xlsx
+++ b/src/total_scores.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-10-11 to 2021-10-17" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2021-10-18 to 2021-10-24" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.69</v>
+        <v>3.427</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.74</v>
+        <v>3.033</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.24</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.66</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="6">
